--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.608762-20_11_30nov 4468.65.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_Ext_rows(1)/aptrans_anon.608762-20_11_30nov 4468.65.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>PPSno</t>
   </si>
@@ -319,7 +319,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -328,43 +328,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -655,10 +652,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -694,7 +691,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -964,11 +961,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="71" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="67" t="s">
@@ -2518,7 +2518,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="67" t="s">
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="71" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="67" t="s">
@@ -2596,7 +2596,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -2692,31 +2692,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="72" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2743,10 +2743,10 @@
         <v>99</v>
       </c>
       <c r="H13" s="67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -2754,7 +2754,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="67" t="s">
         <v>96</v>
@@ -2763,19 +2763,19 @@
         <v>97</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" s="67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -2783,7 +2783,7 @@
         <v>94</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="67" t="s">
         <v>96</v>
@@ -2792,106 +2792,106 @@
         <v>97</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F15" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="H15" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="C16" s="67" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>113</v>
       </c>
       <c r="D16" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="G16" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="H16" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="67" t="s">
         <v>116</v>
-      </c>
-      <c r="H16" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="67" t="s">
+      <c r="H17" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="67" t="s">
         <v>120</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="67" t="s">
+      <c r="H18" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="67" t="s">
         <v>124</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -2899,28 +2899,28 @@
         <v>94</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>127</v>
       </c>
       <c r="D19" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="G19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="H19" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="I19" s="67" t="s">
         <v>131</v>
-      </c>
-      <c r="I19" s="67" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -2928,28 +2928,28 @@
         <v>94</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="G20" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="67" t="s">
+      <c r="I20" s="67" t="s">
         <v>136</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -2957,28 +2957,28 @@
         <v>94</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>97</v>
       </c>
       <c r="E21" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="67" t="s">
+      <c r="I21" s="67" t="s">
         <v>140</v>
-      </c>
-      <c r="I21" s="67" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
